--- a/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
+++ b/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.65</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.05</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501186</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>华夏上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.66</t>
+          <t>181.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8884</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>588080</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>易方达上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>60.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9515</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515870</t>
+          <t>588090</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实中证先进制造100策略ETF</t>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.38</t>
+          <t>40.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -650,25 +710,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>588050</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏上证科创板50成份ETF</t>
+          <t>工银瑞信上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.66</t>
+          <t>37.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1987</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>588050</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.20</t>
+          <t>26.92</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8749</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -706,26 +786,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>588080</t>
+          <t>501186</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达上证科创板50成份ETF</t>
+          <t>华夏3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99.50</t>
+          <t>127.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6745</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -734,26 +824,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>588090</t>
+          <t>515870</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
+          <t>嘉实中证先进制造100策略ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>99.78</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
+++ b/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
+++ b/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
+++ b/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
+++ b/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1406,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>11.94</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1422,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
+++ b/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1485,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1501,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -1422,14 +1517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>11.94</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1533,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
+++ b/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1</v>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1517,14 +1604,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -1533,14 +1742,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>11.94</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -1549,13 +1758,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
+++ b/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>11.94</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,7 +1164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1026,176 +1289,6 @@
       </c>
       <c r="H3" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0785</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1270,22 +1363,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0913</t>
+          <t>0.0785</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1308,22 +1401,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0414</t>
+          <t>0.0358</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1346,26 +1439,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.26</t>
+          <t>98.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0198</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1374,6 +1467,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1695,7 +1958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
+++ b/数据整理/stocks/A股/科创板/688009-中国通号.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>11.94</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -616,7 +633,499 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -862,7 +1371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1070,7 +1579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1164,7 +1673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1289,176 +1798,6 @@
       </c>
       <c r="H3" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0785</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1533,22 +1872,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0913</t>
+          <t>0.0785</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1571,22 +1910,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0414</t>
+          <t>0.0358</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1609,26 +1948,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.26</t>
+          <t>98.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0198</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1637,6 +1976,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1956,98 +2465,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>